--- a/CNC-BoM.xlsx
+++ b/CNC-BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk.sharepoint.com/sites/UT_DesktopMillingMachine/Shared Documents/General/GitHub-LC_CNC/LC-CNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="950" documentId="11_FCC9E17DDF51C54A1A3D9BFC69DB0C4BF401B41C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D72E5E7-BE60-4CA6-B54A-F48A00069DEC}"/>
+  <xr:revisionPtr revIDLastSave="1007" documentId="11_FCC9E17DDF51C54A1A3D9BFC69DB0C4BF401B41C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23D110F6-239F-4EFA-838B-44673E1763FE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="320">
   <si>
     <t>Item</t>
   </si>
@@ -864,9 +864,6 @@
   </si>
   <si>
     <t>N/a</t>
-  </si>
-  <si>
-    <t>Note: Local metal supplier to UTK</t>
   </si>
   <si>
     <t>Hinges</t>
@@ -998,6 +995,72 @@
   </si>
   <si>
     <t>Component Total per machine:</t>
+  </si>
+  <si>
+    <t>1.5" x 3" ANSI Caution Safety Label: Eye protection required. (LB-0321)</t>
+  </si>
+  <si>
+    <t>https://www.mysafetylabels.com/msl/caution-eye-protection-required-safety-label/sku-lb-0321</t>
+  </si>
+  <si>
+    <t>1.5" x 3" Hand Crush Warning Label: Moving Parts Can Crush And Cut, Do Not Operate With Guard Removed, Lockout/Tagout Before Servicing (LB-0231)</t>
+  </si>
+  <si>
+    <t>https://www.mysafetylabels.com/warning-labels/lockouttagout-before-servicing-label/sku-lb-0231</t>
+  </si>
+  <si>
+    <t>.75" x .84" ANSI Z535.4 and ISO 3864-2 Warning (Triangle) Safety Label: ISO W017 - Burn Hazard / Hot Surface (LB-0290)</t>
+  </si>
+  <si>
+    <t>https://www.mysafetylabels.com/warning-labels/burn-hazard-hot-surface-safety-label/sku-lb-0290</t>
+  </si>
+  <si>
+    <t>1.5" x 3" ANSI Warning Label: Inhalation Hazard - Do Not Breathe Vapors (with Graphic) (LB-2329)</t>
+  </si>
+  <si>
+    <t>https://www.mysafetylabels.com/inhalation-hazard-do-not-breathe-vapors-warning-label/sku-lb-2329</t>
+  </si>
+  <si>
+    <t>.75 x .84" ANSI Z535.4 and ISO 3864-2 Warning (Triangle) Safety Label: ISO W012 - Electrical Shock / Electrocution (LB-0012)</t>
+  </si>
+  <si>
+    <t>https://www.mysafetylabels.com/warning-labels/iso-electrocution-safety-label/sku-lb-0012</t>
+  </si>
+  <si>
+    <t>MySafetyLabels</t>
+  </si>
+  <si>
+    <t>NOTE: Local metal supplier to UTK</t>
+  </si>
+  <si>
+    <t>NOTE: This qty is for 15 machines</t>
+  </si>
+  <si>
+    <t>NOTE: Computer must have ethernet</t>
+  </si>
+  <si>
+    <t>Safety Stickers/PPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uline.com/Product/Detail/S-13390C/Safety-Glasses/Ice-Wraparounds-Clear?model=S-13390C&amp;RootChecked=yes </t>
+  </si>
+  <si>
+    <t>Safety glasses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uline.com/Product/Detail/H-3437/Lockout-Tagout/Electrical-Plug-Prong-Lockout </t>
+  </si>
+  <si>
+    <t>Lockout Tagout</t>
+  </si>
+  <si>
+    <t>ULINE</t>
+  </si>
+  <si>
+    <t>Padlock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.uline.com/Product/Detail/H-8621R/Lockout-Tagout/Uline-Lockout-Padlock-Keyed-Different-1-1-2-Shackle-Red?model=H-8621R&amp;RootChecked=yes </t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1607,12 +1670,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1672,6 +1746,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1684,26 +1780,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1715,9 +1793,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2005,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,6 +2097,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
     <col min="22" max="22" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2025,24 +2106,24 @@
       <c r="B2" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="60" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="19">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="K2" s="69" t="s">
-        <v>292</v>
-      </c>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="K2" s="73" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="45" t="s">
@@ -2083,22 +2164,22 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
-      <c r="J4" s="53" t="s">
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="70"/>
+      <c r="J4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="55"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="65"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -2183,14 +2264,14 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="55"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="65"/>
       <c r="J7" s="2" t="s">
         <v>182</v>
       </c>
@@ -2683,16 +2764,16 @@
         <f>E19*F19</f>
         <v>67.989999999999995</v>
       </c>
-      <c r="J19" s="53" t="s">
+      <c r="J19" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="55"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="65"/>
       <c r="V19" s="23" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
@@ -2880,14 +2961,14 @@
         <f t="shared" si="3"/>
         <v>69.38</v>
       </c>
-      <c r="J24" s="53" t="s">
+      <c r="J24" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="55"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="65"/>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
@@ -3282,13 +3363,13 @@
         <f t="shared" si="6"/>
         <v>15.99</v>
       </c>
-      <c r="J34" s="56" t="s">
+      <c r="J34" s="66" t="s">
         <v>201</v>
       </c>
-      <c r="K34" s="57"/>
-      <c r="L34" s="57"/>
-      <c r="M34" s="57"/>
-      <c r="N34" s="58"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="68"/>
       <c r="O34" s="14">
         <f>SUM(O5:O33)</f>
         <v>1223.6999999999998</v>
@@ -3340,13 +3421,13 @@
       <c r="J36" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K36" s="69" t="s">
-        <v>294</v>
-      </c>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="71"/>
+      <c r="K36" s="73" t="s">
+        <v>293</v>
+      </c>
+      <c r="L36" s="74"/>
+      <c r="M36" s="74"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="75"/>
     </row>
     <row r="37" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
@@ -3409,14 +3490,14 @@
         <f t="shared" ref="G38" si="10">E38*F38</f>
         <v>12.99</v>
       </c>
-      <c r="J38" s="53" t="s">
+      <c r="J38" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="63"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="69"/>
+      <c r="M38" s="69"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="70"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
@@ -3440,7 +3521,7 @@
         <v>7.99</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>223</v>
@@ -3481,7 +3562,7 @@
         <v>10.07</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K40" s="8" t="s">
         <v>224</v>
@@ -3522,7 +3603,7 @@
         <v>8.5399999999999991</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K41" s="12" t="s">
         <v>225</v>
@@ -3644,14 +3725,14 @@
         <f t="shared" si="12"/>
         <v>119.97</v>
       </c>
-      <c r="J44" s="53" t="s">
+      <c r="J44" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="63"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="70"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
@@ -3754,13 +3835,13 @@
         <f t="shared" si="6"/>
         <v>12.99</v>
       </c>
-      <c r="J47" s="56" t="s">
+      <c r="J47" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="58"/>
+      <c r="K47" s="67"/>
+      <c r="L47" s="67"/>
+      <c r="M47" s="67"/>
+      <c r="N47" s="68"/>
       <c r="O47" s="14">
         <f>SUM(O38:O46)</f>
         <v>319.13</v>
@@ -3789,17 +3870,24 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="63"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="70"/>
       <c r="J49" s="1" t="s">
         <v>229</v>
       </c>
+      <c r="K49" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="L49" s="74"/>
+      <c r="M49" s="74"/>
+      <c r="N49" s="74"/>
+      <c r="O49" s="75"/>
     </row>
     <row r="50" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
@@ -3842,22 +3930,22 @@
       </c>
     </row>
     <row r="51" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="55"/>
-      <c r="J51" s="53" t="s">
+      <c r="C51" s="64"/>
+      <c r="D51" s="64"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="64"/>
+      <c r="G51" s="65"/>
+      <c r="J51" s="63" t="s">
         <v>222</v>
       </c>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="63"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="69"/>
+      <c r="M51" s="69"/>
+      <c r="N51" s="69"/>
+      <c r="O51" s="70"/>
     </row>
     <row r="52" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="2" t="s">
@@ -3921,21 +4009,21 @@
         <f t="shared" si="13"/>
         <v>15.6</v>
       </c>
-      <c r="J53" s="53" t="s">
+      <c r="J53" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="63"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="69"/>
+      <c r="M53" s="69"/>
+      <c r="N53" s="69"/>
+      <c r="O53" s="70"/>
     </row>
     <row r="54" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>277</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>278</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>9</v>
@@ -3992,14 +4080,14 @@
         <f t="shared" si="13"/>
         <v>9.01</v>
       </c>
-      <c r="J55" s="53" t="s">
+      <c r="J55" s="63" t="s">
         <v>249</v>
       </c>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="63"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="69"/>
+      <c r="M55" s="69"/>
+      <c r="N55" s="69"/>
+      <c r="O55" s="70"/>
     </row>
     <row r="56" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="2" t="s">
@@ -4063,13 +4151,13 @@
         <f t="shared" si="13"/>
         <v>5.29</v>
       </c>
-      <c r="J57" s="56" t="s">
+      <c r="J57" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="K57" s="57"/>
-      <c r="L57" s="57"/>
-      <c r="M57" s="57"/>
-      <c r="N57" s="58"/>
+      <c r="K57" s="67"/>
+      <c r="L57" s="67"/>
+      <c r="M57" s="67"/>
+      <c r="N57" s="68"/>
       <c r="O57" s="14">
         <f>SUM(O51:O56)</f>
         <v>1329.79</v>
@@ -4121,13 +4209,13 @@
       <c r="J59" s="34" t="s">
         <v>274</v>
       </c>
-      <c r="K59" s="69" t="s">
-        <v>276</v>
-      </c>
-      <c r="L59" s="70"/>
-      <c r="M59" s="70"/>
-      <c r="N59" s="70"/>
-      <c r="O59" s="71"/>
+      <c r="K59" s="73" t="s">
+        <v>309</v>
+      </c>
+      <c r="L59" s="74"/>
+      <c r="M59" s="74"/>
+      <c r="N59" s="74"/>
+      <c r="O59" s="75"/>
     </row>
     <row r="60" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
@@ -4190,14 +4278,14 @@
         <f t="shared" si="16"/>
         <v>16.87</v>
       </c>
-      <c r="J61" s="53" t="s">
+      <c r="J61" s="63" t="s">
         <v>270</v>
       </c>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="68"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="72"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="2" t="s">
@@ -4343,19 +4431,19 @@
         <f t="shared" si="16"/>
         <v>10.71</v>
       </c>
-      <c r="J65" s="56" t="s">
+      <c r="J65" s="66" t="s">
         <v>193</v>
       </c>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="58"/>
+      <c r="K65" s="67"/>
+      <c r="L65" s="67"/>
+      <c r="M65" s="67"/>
+      <c r="N65" s="68"/>
       <c r="O65" s="33">
         <f>SUM(O62:O64)</f>
         <v>517</v>
       </c>
     </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="2" t="s">
         <v>77</v>
       </c>
@@ -4377,7 +4465,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="2" t="s">
         <v>118</v>
       </c>
@@ -4398,6 +4486,16 @@
         <f t="shared" si="16"/>
         <v>7.78</v>
       </c>
+      <c r="J67" s="34" t="s">
+        <v>312</v>
+      </c>
+      <c r="K67" s="73" t="s">
+        <v>310</v>
+      </c>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="75"/>
     </row>
     <row r="68" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B68" s="2" t="s">
@@ -4420,10 +4518,28 @@
         <f t="shared" ref="G68:G73" si="18">E68*F68</f>
         <v>12.92</v>
       </c>
+      <c r="J68" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="M68" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="N68" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68" s="51" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="69" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B69" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>216</v>
@@ -4442,6 +4558,14 @@
         <f t="shared" si="18"/>
         <v>8</v>
       </c>
+      <c r="J69" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
+      <c r="M69" s="77"/>
+      <c r="N69" s="77"/>
+      <c r="O69" s="78"/>
     </row>
     <row r="70" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B70" s="2" t="s">
@@ -4464,6 +4588,25 @@
         <f t="shared" si="18"/>
         <v>13.4</v>
       </c>
+      <c r="J70" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="L70" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M70" s="4">
+        <v>15</v>
+      </c>
+      <c r="N70" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O70" s="6">
+        <f t="shared" ref="O70:O76" si="19">M70*N70</f>
+        <v>34.799999999999997</v>
+      </c>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
@@ -4486,8 +4629,27 @@
         <f t="shared" si="18"/>
         <v>3.11</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J71" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="L71" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M71" s="4">
+        <v>15</v>
+      </c>
+      <c r="N71" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O71" s="6">
+        <f t="shared" si="19"/>
+        <v>34.799999999999997</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2" t="s">
         <v>89</v>
       </c>
@@ -4505,8 +4667,27 @@
         <v>3.56</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" ref="G72" si="19">E72*F72</f>
+        <f t="shared" ref="G72" si="20">E72*F72</f>
         <v>3.56</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="K72" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="L72" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M72" s="4">
+        <v>24</v>
+      </c>
+      <c r="N72" s="5">
+        <v>1.79</v>
+      </c>
+      <c r="O72" s="6">
+        <f t="shared" si="19"/>
+        <v>42.96</v>
       </c>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
@@ -4514,7 +4695,7 @@
         <v>133</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>9</v>
@@ -4530,6 +4711,25 @@
         <f t="shared" si="18"/>
         <v>6.69</v>
       </c>
+      <c r="J73" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M73" s="4">
+        <v>15</v>
+      </c>
+      <c r="N73" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="O73" s="6">
+        <f t="shared" si="19"/>
+        <v>34.799999999999997</v>
+      </c>
     </row>
     <row r="74" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B74" s="2" t="s">
@@ -4552,6 +4752,25 @@
         <f t="shared" si="13"/>
         <v>27.76</v>
       </c>
+      <c r="J74" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" s="4">
+        <v>24</v>
+      </c>
+      <c r="N74" s="5">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O74" s="6">
+        <f t="shared" si="19"/>
+        <v>26.64</v>
+      </c>
     </row>
     <row r="75" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B75" s="2" t="s">
@@ -4574,8 +4793,16 @@
         <f t="shared" si="13"/>
         <v>15.31</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J75" s="76" t="s">
+        <v>317</v>
+      </c>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
+      <c r="M75" s="77"/>
+      <c r="N75" s="77"/>
+      <c r="O75" s="78"/>
+    </row>
+    <row r="76" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>119</v>
       </c>
@@ -4596,8 +4823,27 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J76" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="L76" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M76" s="35">
+        <v>15</v>
+      </c>
+      <c r="N76" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="O76" s="43">
+        <f>M76*N76</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="2" t="s">
         <v>253</v>
       </c>
@@ -4618,8 +4864,27 @@
         <f t="shared" si="13"/>
         <v>3.9</v>
       </c>
-    </row>
-    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J77" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="L77" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M77" s="35">
+        <v>8</v>
+      </c>
+      <c r="N77" s="36">
+        <v>14</v>
+      </c>
+      <c r="O77" s="43">
+        <f>M77*N77</f>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>203</v>
       </c>
@@ -4640,8 +4905,27 @@
         <f t="shared" si="13"/>
         <v>4.68</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J78" s="79" t="s">
+        <v>318</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="L78" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M78" s="35">
+        <v>8</v>
+      </c>
+      <c r="N78" s="36">
+        <v>11</v>
+      </c>
+      <c r="O78" s="80">
+        <f>M78*N78</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>204</v>
       </c>
@@ -4659,8 +4943,19 @@
         <v>2.34</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" ref="G79:G85" si="20">E79*F79</f>
+        <f t="shared" ref="G79:G85" si="21">E79*F79</f>
         <v>7.02</v>
+      </c>
+      <c r="J79" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="K79" s="67"/>
+      <c r="L79" s="67"/>
+      <c r="M79" s="67"/>
+      <c r="N79" s="67"/>
+      <c r="O79" s="56">
+        <f>SUM(O70:O78)</f>
+        <v>411.5</v>
       </c>
     </row>
     <row r="80" spans="2:15" x14ac:dyDescent="0.25">
@@ -4681,7 +4976,7 @@
         <v>2.34</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7.02</v>
       </c>
     </row>
@@ -4703,7 +4998,7 @@
         <v>2.34</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.68</v>
       </c>
     </row>
@@ -4725,7 +5020,7 @@
         <v>23.68</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>23.68</v>
       </c>
     </row>
@@ -4747,7 +5042,7 @@
         <v>15.54</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>15.54</v>
       </c>
     </row>
@@ -4769,7 +5064,7 @@
         <v>4.79</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.79</v>
       </c>
     </row>
@@ -4791,7 +5086,7 @@
         <v>8</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>8</v>
       </c>
     </row>
@@ -4888,7 +5183,7 @@
         <v>99</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>9</v>
@@ -4994,21 +5289,21 @@
       </c>
     </row>
     <row r="95" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="53" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54"/>
-      <c r="G95" s="55"/>
+      <c r="B95" s="63" t="s">
+        <v>278</v>
+      </c>
+      <c r="C95" s="64"/>
+      <c r="D95" s="64"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="65"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D96" s="35" t="s">
         <v>9</v>
@@ -5027,10 +5322,10 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="16" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D97" s="35" t="s">
         <v>9</v>
@@ -5049,10 +5344,10 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="16" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D98" s="35" t="s">
         <v>9</v>
@@ -5071,10 +5366,10 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="35" t="s">
         <v>9</v>
@@ -5093,10 +5388,10 @@
     </row>
     <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D100" s="35" t="s">
         <v>9</v>
@@ -5114,14 +5409,14 @@
       </c>
     </row>
     <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="53" t="s">
+      <c r="B101" s="63" t="s">
         <v>254</v>
       </c>
-      <c r="C101" s="54"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="54"/>
-      <c r="F101" s="54"/>
-      <c r="G101" s="55"/>
+      <c r="C101" s="64"/>
+      <c r="D101" s="64"/>
+      <c r="E101" s="64"/>
+      <c r="F101" s="64"/>
+      <c r="G101" s="65"/>
     </row>
     <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
@@ -5146,51 +5441,65 @@
       </c>
     </row>
     <row r="103" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="59" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="60"/>
-      <c r="D103" s="60"/>
-      <c r="E103" s="60"/>
-      <c r="F103" s="61"/>
+      <c r="B103" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="59"/>
       <c r="G103" s="21">
         <f>SUM(G5:G102)</f>
         <v>2484.6959999999985</v>
       </c>
     </row>
     <row r="104" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="59" t="s">
-        <v>298</v>
-      </c>
-      <c r="C104" s="60"/>
-      <c r="D104" s="60"/>
-      <c r="E104" s="60"/>
-      <c r="F104" s="61"/>
-      <c r="G104" s="73">
+      <c r="B104" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="54">
         <f>(SUM(G5:G102))/G2</f>
         <v>2484.6959999999985</v>
       </c>
     </row>
     <row r="105" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="59" t="s">
-        <v>285</v>
-      </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="74">
+      <c r="B105" s="57" t="s">
+        <v>284</v>
+      </c>
+      <c r="C105" s="58"/>
+      <c r="D105" s="58"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="55">
         <f>G104+O65</f>
         <v>3001.6959999999985</v>
       </c>
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G108" s="72"/>
-      <c r="I108" s="72"/>
+      <c r="G108" s="53"/>
+      <c r="I108" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="31">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B95:G95"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="J47:N47"/>
+    <mergeCell ref="J51:O51"/>
+    <mergeCell ref="J53:O53"/>
+    <mergeCell ref="J55:O55"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J69:O69"/>
+    <mergeCell ref="K67:O67"/>
+    <mergeCell ref="J79:N79"/>
+    <mergeCell ref="K49:O49"/>
     <mergeCell ref="K36:O36"/>
+    <mergeCell ref="J75:O75"/>
     <mergeCell ref="B105:F105"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B103:F103"/>
@@ -5207,15 +5516,6 @@
     <mergeCell ref="J44:O44"/>
     <mergeCell ref="J61:O61"/>
     <mergeCell ref="K59:O59"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B95:G95"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="J47:N47"/>
-    <mergeCell ref="J51:O51"/>
-    <mergeCell ref="J53:O53"/>
-    <mergeCell ref="J55:O55"/>
-    <mergeCell ref="J57:N57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{182E6AD4-2BF8-453D-8168-0C5471656634}"/>
@@ -5345,22 +5645,21 @@
     <hyperlink ref="C73" r:id="rId125" xr:uid="{2521E3A3-9809-485D-8952-C732415A0425}"/>
     <hyperlink ref="C100" r:id="rId126" xr:uid="{AD026F35-40AA-43A1-A115-D328BF9DAEF3}"/>
     <hyperlink ref="K39" r:id="rId127" xr:uid="{BE5F57C8-C44E-47CF-B992-FEB02C6C001F}"/>
+    <hyperlink ref="K70" r:id="rId128" xr:uid="{A8E5D7AD-E110-498C-AD66-4031E7159275}"/>
+    <hyperlink ref="K71" r:id="rId129" xr:uid="{28574EF9-4C29-416A-9014-DF10F6B4853B}"/>
+    <hyperlink ref="K72" r:id="rId130" xr:uid="{686F1C5B-AD14-408B-9AF5-1B4D26D75248}"/>
+    <hyperlink ref="K74" r:id="rId131" xr:uid="{565E1FE6-DC1B-4E5A-9841-0564CC5736CC}"/>
+    <hyperlink ref="K73" r:id="rId132" xr:uid="{740B6184-A979-4100-83E3-2699795F172A}"/>
+    <hyperlink ref="K76" r:id="rId133" xr:uid="{A8336809-C542-4E15-9187-DB4F43D26933}"/>
+    <hyperlink ref="K77" r:id="rId134" xr:uid="{49B9B422-CDDA-427C-82B9-729F2266C333}"/>
+    <hyperlink ref="K78" r:id="rId135" xr:uid="{3E0AC7C3-82FC-4B11-AD25-3DE1DD9499EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId128"/>
+  <pageSetup orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049C730614A98FF4D948BAAFAA2763638" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09e37f2ef9bef24154c689c9241203a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a816e368-bd7d-4e73-ae60-f7bbf4d187c7" xmlns:ns3="fb0bfce0-b493-4733-b695-336371de64d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c23ee64ebe9444b24c4b4ef6420ff96" ns2:_="" ns3:_="">
     <xsd:import namespace="a816e368-bd7d-4e73-ae60-f7bbf4d187c7"/>
@@ -5573,6 +5872,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -5585,14 +5893,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA33EB9-975B-4CAF-BADE-D8C6854E172C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F3C9A4-0D35-4985-9741-8479EE24B4B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5611,6 +5911,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA33EB9-975B-4CAF-BADE-D8C6854E172C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD534FFF-F9D4-45E9-B4A8-C5178968AA79}">
   <ds:schemaRefs>

--- a/CNC-BoM.xlsx
+++ b/CNC-BoM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveutk.sharepoint.com/sites/UT_DesktopMillingMachine/Shared Documents/General/GitHub-LC_CNC/LC-CNC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1067" documentId="11_FCC9E17DDF51C54A1A3D9BFC69DB0C4BF401B41C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{719C628E-2F22-4E96-B9FF-B6C658A55652}"/>
+  <xr:revisionPtr revIDLastSave="1071" documentId="11_FCC9E17DDF51C54A1A3D9BFC69DB0C4BF401B41C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64249E54-41C0-48D2-8121-8A119FB23E20}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="325">
   <si>
     <t>Item</t>
   </si>
@@ -975,12 +975,6 @@
     <t>https://www.mysafetylabels.com/warning-labels/burn-hazard-hot-surface-safety-label/sku-lb-0290</t>
   </si>
   <si>
-    <t>1.5" x 3" ANSI Warning Label: Inhalation Hazard - Do Not Breathe Vapors (with Graphic) (LB-2329)</t>
-  </si>
-  <si>
-    <t>https://www.mysafetylabels.com/inhalation-hazard-do-not-breathe-vapors-warning-label/sku-lb-2329</t>
-  </si>
-  <si>
     <t>MySafetyLabels</t>
   </si>
   <si>
@@ -1073,6 +1067,15 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/gp/product/B0BY51FJGY/ref=ewc_pr_img_1?smid=AO6JMNGOG26ZH&amp;th=1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Old spindle</t>
+  </si>
+  <si>
+    <t>old motors for x and y</t>
   </si>
 </sst>
 </file>
@@ -1761,14 +1764,23 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1782,31 +1794,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1823,6 +1826,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2090,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:V108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V27" sqref="V27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,24 +2118,24 @@
       <c r="B2" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61"/>
       <c r="G2" s="19">
         <v>1</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="72" t="s">
         <v>284</v>
       </c>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="58"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="74"/>
     </row>
     <row r="3" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="44" t="s">
@@ -2169,7 +2176,7 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="68"/>
@@ -2177,14 +2184,14 @@
       <c r="E4" s="68"/>
       <c r="F4" s="68"/>
       <c r="G4" s="69"/>
-      <c r="J4" s="59" t="s">
+      <c r="J4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="61"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="64"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
@@ -2269,14 +2276,14 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
       <c r="J7" s="2" t="s">
         <v>178</v>
       </c>
@@ -2621,7 +2628,7 @@
         <v>15.09</v>
       </c>
       <c r="O15" s="6">
-        <f>M15*N15</f>
+        <f t="shared" ref="O15:O21" si="3">M15*N15</f>
         <v>15.09</v>
       </c>
     </row>
@@ -2662,7 +2669,7 @@
         <v>25.5</v>
       </c>
       <c r="O16" s="6">
-        <f>M16*N16</f>
+        <f t="shared" si="3"/>
         <v>25.5</v>
       </c>
     </row>
@@ -2703,7 +2710,7 @@
         <v>162</v>
       </c>
       <c r="O17" s="6">
-        <f>M17*N17</f>
+        <f t="shared" si="3"/>
         <v>162</v>
       </c>
     </row>
@@ -2725,7 +2732,7 @@
         <v>6.39</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" ref="G18:G23" si="3">E18*F18</f>
+        <f t="shared" ref="G18:G23" si="4">E18*F18</f>
         <v>6.39</v>
       </c>
       <c r="J18" s="2" t="s">
@@ -2744,7 +2751,7 @@
         <v>23.99</v>
       </c>
       <c r="O18" s="6">
-        <f>M18*N18</f>
+        <f t="shared" si="3"/>
         <v>23.99</v>
       </c>
     </row>
@@ -2766,7 +2773,7 @@
         <v>12.99</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.99</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -2785,7 +2792,7 @@
         <v>13.99</v>
       </c>
       <c r="O19" s="6">
-        <f>M19*N19</f>
+        <f t="shared" si="3"/>
         <v>13.99</v>
       </c>
       <c r="V19" s="23" t="s">
@@ -2810,7 +2817,7 @@
         <v>9.99</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19.98</v>
       </c>
       <c r="J20" s="2" t="s">
@@ -2829,11 +2836,11 @@
         <v>12.81</v>
       </c>
       <c r="O20" s="6">
-        <f>M20*N20</f>
+        <f t="shared" si="3"/>
         <v>12.81</v>
       </c>
       <c r="V20" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2854,7 +2861,7 @@
         <v>39.99</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39.99</v>
       </c>
       <c r="J21" s="16" t="s">
@@ -2873,8 +2880,11 @@
         <v>34.97</v>
       </c>
       <c r="O21" s="38">
-        <f>M21*N21</f>
+        <f t="shared" si="3"/>
         <v>34.97</v>
+      </c>
+      <c r="V21" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2895,17 +2905,20 @@
         <v>34.69</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.38</v>
       </c>
-      <c r="J22" s="59" t="s">
+      <c r="J22" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="K22" s="60"/>
-      <c r="L22" s="60"/>
-      <c r="M22" s="60"/>
-      <c r="N22" s="60"/>
-      <c r="O22" s="61"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+      <c r="V22" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
@@ -2925,7 +2938,7 @@
         <v>40.39</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40.39</v>
       </c>
       <c r="J23" s="2" t="s">
@@ -2944,7 +2957,7 @@
         <v>9.5399999999999991</v>
       </c>
       <c r="O23" s="40">
-        <f t="shared" ref="O23:O26" si="4">M23*N23</f>
+        <f t="shared" ref="O23:O26" si="5">M23*N23</f>
         <v>9.5399999999999991</v>
       </c>
     </row>
@@ -2985,7 +2998,7 @@
         <v>41.86</v>
       </c>
       <c r="O24" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>41.86</v>
       </c>
     </row>
@@ -3007,7 +3020,7 @@
         <v>8.99</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" ref="G25:G44" si="5">E25*F25</f>
+        <f t="shared" ref="G25:G44" si="6">E25*F25</f>
         <v>8.99</v>
       </c>
       <c r="J25" s="2" t="s">
@@ -3026,7 +3039,7 @@
         <v>36.15</v>
       </c>
       <c r="O25" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>36.15</v>
       </c>
     </row>
@@ -3048,7 +3061,7 @@
         <v>48.99</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>48.99</v>
       </c>
       <c r="J26" s="16" t="s">
@@ -3067,7 +3080,7 @@
         <v>7.55</v>
       </c>
       <c r="O26" s="38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.55</v>
       </c>
       <c r="R26" t="s">
@@ -3092,17 +3105,17 @@
         <v>8.99</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8.99</v>
       </c>
-      <c r="J27" s="59" t="s">
+      <c r="J27" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="61"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
@@ -3122,7 +3135,7 @@
         <v>124</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>124</v>
       </c>
       <c r="J28" s="2" t="s">
@@ -3163,7 +3176,7 @@
         <v>45.34</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>45.34</v>
       </c>
       <c r="J29" s="2" t="s">
@@ -3182,7 +3195,7 @@
         <v>35.76</v>
       </c>
       <c r="O29" s="6">
-        <f t="shared" ref="O29:O30" si="6">M29*N29</f>
+        <f t="shared" ref="O29:O30" si="7">M29*N29</f>
         <v>35.76</v>
       </c>
     </row>
@@ -3223,7 +3236,7 @@
         <v>30.07</v>
       </c>
       <c r="O30" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30.07</v>
       </c>
     </row>
@@ -3245,7 +3258,7 @@
         <v>51.74</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" ref="G31" si="7">E31*F31</f>
+        <f t="shared" ref="G31" si="8">E31*F31</f>
         <v>51.74</v>
       </c>
       <c r="J31" s="2" t="s">
@@ -3286,7 +3299,7 @@
         <v>15.99</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.99</v>
       </c>
       <c r="J32" s="2" t="s">
@@ -3327,7 +3340,7 @@
         <v>7.69</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.69</v>
       </c>
       <c r="J33" s="2" t="s">
@@ -3368,7 +3381,7 @@
         <v>11.47</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>11.47</v>
       </c>
       <c r="J34" s="2" t="s">
@@ -3409,7 +3422,7 @@
         <v>12.99</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" ref="G35" si="8">E35*F35</f>
+        <f t="shared" ref="G35" si="9">E35*F35</f>
         <v>12.99</v>
       </c>
       <c r="J35" s="2" t="s">
@@ -3428,7 +3441,7 @@
         <v>84.66</v>
       </c>
       <c r="O35" s="6">
-        <f t="shared" ref="O35" si="9">M35*N35</f>
+        <f t="shared" ref="O35" si="10">M35*N35</f>
         <v>84.66</v>
       </c>
     </row>
@@ -3469,16 +3482,16 @@
         <v>102.36</v>
       </c>
       <c r="O36" s="6">
-        <f t="shared" ref="O36" si="10">M36*N36</f>
+        <f t="shared" ref="O36" si="11">M36*N36</f>
         <v>102.36</v>
       </c>
     </row>
     <row r="37" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>9</v>
@@ -3490,16 +3503,16 @@
         <v>13.99</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" ref="G37:G38" si="11">E37*F37</f>
+        <f t="shared" ref="G37:G38" si="12">E37*F37</f>
         <v>13.99</v>
       </c>
-      <c r="J37" s="62" t="s">
+      <c r="J37" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="64"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="67"/>
       <c r="O37" s="14">
         <f>SUM(O5:O36)</f>
         <v>1276.6699999999998</v>
@@ -3507,10 +3520,10 @@
     </row>
     <row r="38" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>9</v>
@@ -3523,7 +3536,7 @@
         <v>19.989999999999998</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>39.979999999999997</v>
       </c>
     </row>
@@ -3551,13 +3564,13 @@
       <c r="J39" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="K39" s="56" t="s">
+      <c r="K39" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="L39" s="57"/>
-      <c r="M39" s="57"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="58"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="74"/>
     </row>
     <row r="40" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
@@ -3617,10 +3630,10 @@
         <v>9.99</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" ref="G41:G43" si="12">E41*F41</f>
+        <f t="shared" ref="G41:G43" si="13">E41*F41</f>
         <v>9.99</v>
       </c>
-      <c r="J41" s="59" t="s">
+      <c r="J41" s="62" t="s">
         <v>219</v>
       </c>
       <c r="K41" s="68"/>
@@ -3647,7 +3660,7 @@
         <v>39.99</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>119.97</v>
       </c>
       <c r="J42" s="2" t="s">
@@ -3666,7 +3679,7 @@
         <v>77.319999999999993</v>
       </c>
       <c r="O42" s="40">
-        <f t="shared" ref="O42:O43" si="13">M42*N42</f>
+        <f t="shared" ref="O42:O43" si="14">M42*N42</f>
         <v>77.319999999999993</v>
       </c>
     </row>
@@ -3688,7 +3701,7 @@
         <v>44.15</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>44.15</v>
       </c>
       <c r="J43" s="2" t="s">
@@ -3707,7 +3720,7 @@
         <v>22.81</v>
       </c>
       <c r="O43" s="6">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>22.81</v>
       </c>
     </row>
@@ -3729,7 +3742,7 @@
         <v>12.99</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>25.98</v>
       </c>
       <c r="J44" s="2" t="s">
@@ -3753,7 +3766,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="62" t="s">
         <v>43</v>
       </c>
       <c r="C45" s="68"/>
@@ -3823,15 +3836,15 @@
       </c>
     </row>
     <row r="47" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="59" t="s">
+      <c r="B47" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="J47" s="59" t="s">
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="64"/>
+      <c r="J47" s="62" t="s">
         <v>106</v>
       </c>
       <c r="K47" s="68"/>
@@ -3858,7 +3871,7 @@
         <v>14.77</v>
       </c>
       <c r="G48" s="40">
-        <f t="shared" ref="G48:G100" si="14">E48*F48</f>
+        <f t="shared" ref="G48:G100" si="15">E48*F48</f>
         <v>29.54</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -3898,7 +3911,7 @@
         <v>7.8</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.6</v>
       </c>
       <c r="J49" s="2" t="s">
@@ -3938,16 +3951,16 @@
         <v>13.05</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>26.1</v>
       </c>
-      <c r="J50" s="62" t="s">
+      <c r="J50" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="64"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
+      <c r="M50" s="66"/>
+      <c r="N50" s="67"/>
       <c r="O50" s="14">
         <f>SUM(O41:O49)</f>
         <v>319.13</v>
@@ -3971,7 +3984,7 @@
         <v>9.01</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>9.01</v>
       </c>
     </row>
@@ -3993,19 +4006,19 @@
         <v>3.81</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.24</v>
       </c>
       <c r="J52" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="K52" s="56" t="s">
-        <v>299</v>
-      </c>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="58"/>
+      <c r="K52" s="72" t="s">
+        <v>297</v>
+      </c>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="74"/>
     </row>
     <row r="53" spans="2:15" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="2" t="s">
@@ -4025,7 +4038,7 @@
         <v>5.29</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5.29</v>
       </c>
       <c r="J53" s="47" t="s">
@@ -4065,10 +4078,10 @@
         <v>4.18</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>41.8</v>
       </c>
-      <c r="J54" s="59" t="s">
+      <c r="J54" s="62" t="s">
         <v>219</v>
       </c>
       <c r="K54" s="68"/>
@@ -4095,7 +4108,7 @@
         <v>30.67</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>61.34</v>
       </c>
       <c r="J55" s="16" t="s">
@@ -4114,7 +4127,7 @@
         <v>721.96</v>
       </c>
       <c r="O55" s="42">
-        <f t="shared" ref="O55:O57" si="15">M55*N55</f>
+        <f t="shared" ref="O55:O57" si="16">M55*N55</f>
         <v>721.96</v>
       </c>
     </row>
@@ -4136,10 +4149,10 @@
         <v>9.5500000000000007</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" ref="G56:G63" si="16">E56*F56</f>
+        <f t="shared" ref="G56:G63" si="17">E56*F56</f>
         <v>19.100000000000001</v>
       </c>
-      <c r="J56" s="59" t="s">
+      <c r="J56" s="62" t="s">
         <v>106</v>
       </c>
       <c r="K56" s="68"/>
@@ -4166,7 +4179,7 @@
         <v>16.87</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>16.87</v>
       </c>
       <c r="J57" s="16" t="s">
@@ -4185,7 +4198,7 @@
         <v>367.84</v>
       </c>
       <c r="O57" s="42">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>367.84</v>
       </c>
     </row>
@@ -4207,10 +4220,10 @@
         <v>8.33</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>8.33</v>
       </c>
-      <c r="J58" s="59" t="s">
+      <c r="J58" s="62" t="s">
         <v>244</v>
       </c>
       <c r="K58" s="68"/>
@@ -4237,7 +4250,7 @@
         <v>20.87</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>20.87</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -4256,7 +4269,7 @@
         <v>239.99</v>
       </c>
       <c r="O59" s="40">
-        <f t="shared" ref="O59" si="17">M59*N59</f>
+        <f t="shared" ref="O59" si="18">M59*N59</f>
         <v>239.99</v>
       </c>
     </row>
@@ -4278,19 +4291,18 @@
         <v>11.38</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>22.76</v>
       </c>
-      <c r="J60" s="62" t="s">
+      <c r="J60" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="K60" s="63"/>
-      <c r="L60" s="63"/>
-      <c r="M60" s="63"/>
-      <c r="N60" s="64"/>
-      <c r="O60" s="14">
-        <f>SUM(O54:O59)</f>
-        <v>1329.79</v>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
+      <c r="M60" s="66"/>
+      <c r="N60" s="67"/>
+      <c r="O60" s="14" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4311,7 +4323,7 @@
         <v>10.71</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>10.71</v>
       </c>
     </row>
@@ -4333,19 +4345,19 @@
         <v>12.36</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>12.36</v>
       </c>
       <c r="J62" s="34" t="s">
         <v>269</v>
       </c>
-      <c r="K62" s="56" t="s">
-        <v>308</v>
-      </c>
-      <c r="L62" s="57"/>
-      <c r="M62" s="57"/>
-      <c r="N62" s="57"/>
-      <c r="O62" s="58"/>
+      <c r="K62" s="72" t="s">
+        <v>306</v>
+      </c>
+      <c r="L62" s="73"/>
+      <c r="M62" s="73"/>
+      <c r="N62" s="73"/>
+      <c r="O62" s="74"/>
     </row>
     <row r="63" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2" t="s">
@@ -4365,7 +4377,7 @@
         <v>7.78</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>7.78</v>
       </c>
       <c r="J63" s="48" t="s">
@@ -4405,17 +4417,17 @@
         <v>12.92</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" ref="G64:G69" si="18">E64*F64</f>
+        <f t="shared" ref="G64:G69" si="19">E64*F64</f>
         <v>12.92</v>
       </c>
-      <c r="J64" s="59" t="s">
+      <c r="J64" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="K64" s="76"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="76"/>
-      <c r="N64" s="76"/>
-      <c r="O64" s="77"/>
+      <c r="K64" s="70"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="70"/>
+      <c r="N64" s="70"/>
+      <c r="O64" s="71"/>
     </row>
     <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="2" t="s">
@@ -4435,7 +4447,7 @@
         <v>8</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8</v>
       </c>
       <c r="J65" s="25" t="s">
@@ -4454,7 +4466,7 @@
         <v>135</v>
       </c>
       <c r="O65" s="51">
-        <f t="shared" ref="O65:O66" si="19">M65*N65</f>
+        <f t="shared" ref="O65:O66" si="20">M65*N65</f>
         <v>135</v>
       </c>
     </row>
@@ -4476,7 +4488,7 @@
         <v>13.4</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>13.4</v>
       </c>
       <c r="J66" s="25" t="s">
@@ -4495,7 +4507,7 @@
         <v>280</v>
       </c>
       <c r="O66" s="27">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>280</v>
       </c>
     </row>
@@ -4517,7 +4529,7 @@
         <v>3.11</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.11</v>
       </c>
       <c r="J67" s="28" t="s">
@@ -4558,16 +4570,16 @@
         <v>3.56</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" ref="G68" si="20">E68*F68</f>
+        <f t="shared" ref="G68" si="21">E68*F68</f>
         <v>3.56</v>
       </c>
-      <c r="J68" s="62" t="s">
+      <c r="J68" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="64"/>
+      <c r="K68" s="66"/>
+      <c r="L68" s="66"/>
+      <c r="M68" s="66"/>
+      <c r="N68" s="67"/>
       <c r="O68" s="33">
         <f>SUM(O65:O67)</f>
         <v>517</v>
@@ -4591,7 +4603,7 @@
         <v>6.69</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>6.69</v>
       </c>
     </row>
@@ -4613,19 +4625,19 @@
         <v>27.76</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>27.76</v>
       </c>
       <c r="J70" s="34" t="s">
-        <v>300</v>
-      </c>
-      <c r="K70" s="56" t="s">
         <v>298</v>
       </c>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="58"/>
+      <c r="K70" s="72" t="s">
+        <v>296</v>
+      </c>
+      <c r="L70" s="73"/>
+      <c r="M70" s="73"/>
+      <c r="N70" s="73"/>
+      <c r="O70" s="74"/>
     </row>
     <row r="71" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B71" s="2" t="s">
@@ -4645,7 +4657,7 @@
         <v>15.31</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.31</v>
       </c>
       <c r="J71" s="48" t="s">
@@ -4685,17 +4697,17 @@
         <v>20</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>20</v>
       </c>
-      <c r="J72" s="70" t="s">
-        <v>297</v>
-      </c>
-      <c r="K72" s="71"/>
-      <c r="L72" s="71"/>
-      <c r="M72" s="71"/>
-      <c r="N72" s="71"/>
-      <c r="O72" s="72"/>
+      <c r="J72" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="K72" s="76"/>
+      <c r="L72" s="76"/>
+      <c r="M72" s="76"/>
+      <c r="N72" s="76"/>
+      <c r="O72" s="77"/>
     </row>
     <row r="73" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B73" s="2" t="s">
@@ -4715,7 +4727,7 @@
         <v>3.9</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.9</v>
       </c>
       <c r="J73" s="2" t="s">
@@ -4734,7 +4746,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O73" s="6">
-        <f t="shared" ref="O73:O78" si="21">M73*N73</f>
+        <f t="shared" ref="O73:O77" si="22">M73*N73</f>
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -4756,14 +4768,14 @@
         <v>2.34</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4.68</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>9</v>
@@ -4775,7 +4787,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O74" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -4797,7 +4809,7 @@
         <v>2.34</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" ref="G75:G81" si="22">E75*F75</f>
+        <f t="shared" ref="G75:G81" si="23">E75*F75</f>
         <v>7.02</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -4816,7 +4828,7 @@
         <v>1.79</v>
       </c>
       <c r="O75" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>42.96</v>
       </c>
     </row>
@@ -4838,14 +4850,14 @@
         <v>2.34</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>7.02</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L76" s="4" t="s">
         <v>9</v>
@@ -4857,7 +4869,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="O76" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>34.799999999999997</v>
       </c>
     </row>
@@ -4879,27 +4891,27 @@
         <v>2.34</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.68</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>317</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>9</v>
       </c>
       <c r="M77" s="4">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="N77" s="5">
-        <v>2.3199999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="O77" s="6">
-        <f t="shared" si="21"/>
-        <v>34.799999999999997</v>
+        <f t="shared" si="22"/>
+        <v>26.64</v>
       </c>
     </row>
     <row r="78" spans="2:15" x14ac:dyDescent="0.25">
@@ -4920,30 +4932,19 @@
         <v>23.68</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>23.68</v>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M78" s="4">
-        <v>24</v>
-      </c>
-      <c r="N78" s="5">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O78" s="6">
-        <f t="shared" si="21"/>
-        <v>26.64</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J78" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="K78" s="76"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="76"/>
+      <c r="O78" s="77"/>
+    </row>
+    <row r="79" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="2" t="s">
         <v>210</v>
       </c>
@@ -4961,17 +4962,28 @@
         <v>15.54</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>15.54</v>
       </c>
-      <c r="J79" s="70" t="s">
-        <v>305</v>
-      </c>
-      <c r="K79" s="71"/>
-      <c r="L79" s="71"/>
-      <c r="M79" s="71"/>
-      <c r="N79" s="71"/>
-      <c r="O79" s="72"/>
+      <c r="J79" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="L79" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M79" s="35">
+        <v>15</v>
+      </c>
+      <c r="N79" s="36">
+        <v>2.5</v>
+      </c>
+      <c r="O79" s="42">
+        <f>M79*N79</f>
+        <v>37.5</v>
+      </c>
     </row>
     <row r="80" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="2" t="s">
@@ -4991,7 +5003,7 @@
         <v>4.79</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>4.79</v>
       </c>
       <c r="J80" s="16" t="s">
@@ -5004,14 +5016,14 @@
         <v>9</v>
       </c>
       <c r="M80" s="35">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N80" s="36">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="O80" s="42">
         <f>M80*N80</f>
-        <v>37.5</v>
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5032,14 +5044,14 @@
         <v>8</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>8</v>
       </c>
       <c r="J81" s="16" t="s">
         <v>304</v>
       </c>
       <c r="K81" s="15" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="L81" s="30" t="s">
         <v>9</v>
@@ -5048,11 +5060,11 @@
         <v>8</v>
       </c>
       <c r="N81" s="36">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="O81" s="42">
         <f>M81*N81</f>
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5073,30 +5085,22 @@
         <v>3.64</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.64</v>
       </c>
-      <c r="J82" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="K82" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="L82" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="M82" s="35">
-        <v>8</v>
-      </c>
-      <c r="N82" s="36">
-        <v>11</v>
-      </c>
-      <c r="O82" s="42">
-        <f>M82*N82</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J82" s="65" t="s">
+        <v>190</v>
+      </c>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
+      <c r="M82" s="66"/>
+      <c r="N82" s="66"/>
+      <c r="O82" s="55">
+        <f>SUM(O73:O81)</f>
+        <v>411.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B83" s="2" t="s">
         <v>90</v>
       </c>
@@ -5114,19 +5118,8 @@
         <v>3.64</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.64</v>
-      </c>
-      <c r="J83" s="62" t="s">
-        <v>190</v>
-      </c>
-      <c r="K83" s="63"/>
-      <c r="L83" s="63"/>
-      <c r="M83" s="63"/>
-      <c r="N83" s="63"/>
-      <c r="O83" s="55">
-        <f>SUM(O73:O82)</f>
-        <v>446.3</v>
       </c>
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
@@ -5147,7 +5140,7 @@
         <v>3.64</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.64</v>
       </c>
     </row>
@@ -5169,7 +5162,7 @@
         <v>3.64</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.64</v>
       </c>
     </row>
@@ -5191,7 +5184,7 @@
         <v>15.26</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15.26</v>
       </c>
     </row>
@@ -5213,7 +5206,7 @@
         <v>8.16</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.16</v>
       </c>
     </row>
@@ -5235,7 +5228,7 @@
         <v>8.16</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.16</v>
       </c>
     </row>
@@ -5257,7 +5250,7 @@
         <v>8.16</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>8.16</v>
       </c>
     </row>
@@ -5284,14 +5277,14 @@
       </c>
     </row>
     <row r="91" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="62" t="s">
         <v>273</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="60"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="61"/>
+      <c r="C91" s="63"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="63"/>
+      <c r="F91" s="63"/>
+      <c r="G91" s="64"/>
     </row>
     <row r="92" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B92" s="16" t="s">
@@ -5383,10 +5376,10 @@
     </row>
     <row r="96" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="16" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D96" s="35" t="s">
         <v>9</v>
@@ -5404,21 +5397,21 @@
       </c>
     </row>
     <row r="97" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="59" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="60"/>
-      <c r="F97" s="60"/>
-      <c r="G97" s="61"/>
+      <c r="B97" s="62" t="s">
+        <v>319</v>
+      </c>
+      <c r="C97" s="63"/>
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="64"/>
     </row>
     <row r="98" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>9</v>
@@ -5436,14 +5429,14 @@
       </c>
     </row>
     <row r="99" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="62" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="60"/>
-      <c r="F99" s="60"/>
-      <c r="G99" s="61"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63"/>
+      <c r="G99" s="64"/>
     </row>
     <row r="100" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2" t="s">
@@ -5463,44 +5456,44 @@
         <v>30.21</v>
       </c>
       <c r="G100" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>30.21</v>
       </c>
     </row>
     <row r="101" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="65" t="s">
+      <c r="B101" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="67"/>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="21">
         <f>SUM(G5:G100)</f>
         <v>2477.7159999999985</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="65" t="s">
+      <c r="B102" s="56" t="s">
         <v>290</v>
       </c>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="67"/>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="53">
         <f>(SUM(G5:G100))/G2</f>
         <v>2477.7159999999985</v>
       </c>
     </row>
     <row r="103" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="65" t="s">
+      <c r="B103" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="67"/>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="54">
         <f>G102+O68</f>
         <v>2994.7159999999985</v>
@@ -5514,6 +5507,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="B91:G91"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="J54:O54"/>
+    <mergeCell ref="J56:O56"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="J60:N60"/>
+    <mergeCell ref="J72:O72"/>
+    <mergeCell ref="K70:O70"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="K52:O52"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="J78:O78"/>
+    <mergeCell ref="B97:G97"/>
     <mergeCell ref="B103:F103"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="B101:F101"/>
@@ -5530,22 +5539,6 @@
     <mergeCell ref="J47:O47"/>
     <mergeCell ref="J64:O64"/>
     <mergeCell ref="K62:O62"/>
-    <mergeCell ref="K2:O2"/>
-    <mergeCell ref="B91:G91"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="J54:O54"/>
-    <mergeCell ref="J56:O56"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="J60:N60"/>
-    <mergeCell ref="J72:O72"/>
-    <mergeCell ref="K70:O70"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="K52:O52"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="J79:O79"/>
-    <mergeCell ref="B97:G97"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" xr:uid="{182E6AD4-2BF8-453D-8168-0C5471656634}"/>
@@ -5673,20 +5666,19 @@
     <hyperlink ref="K42" r:id="rId123" xr:uid="{BE5F57C8-C44E-47CF-B992-FEB02C6C001F}"/>
     <hyperlink ref="K73" r:id="rId124" xr:uid="{A8E5D7AD-E110-498C-AD66-4031E7159275}"/>
     <hyperlink ref="K75" r:id="rId125" xr:uid="{686F1C5B-AD14-408B-9AF5-1B4D26D75248}"/>
-    <hyperlink ref="K76" r:id="rId126" xr:uid="{740B6184-A979-4100-83E3-2699795F172A}"/>
-    <hyperlink ref="K80" r:id="rId127" xr:uid="{A8336809-C542-4E15-9187-DB4F43D26933}"/>
-    <hyperlink ref="K81" r:id="rId128" xr:uid="{49B9B422-CDDA-427C-82B9-729F2266C333}"/>
-    <hyperlink ref="K82" r:id="rId129" xr:uid="{3E0AC7C3-82FC-4B11-AD25-3DE1DD9499EF}"/>
-    <hyperlink ref="C96" r:id="rId130" xr:uid="{2C6B41AF-87E5-4DA5-9686-67EEDF628339}"/>
-    <hyperlink ref="C37" r:id="rId131" xr:uid="{1800FA32-51EA-41AB-8A1C-BCA281C1CA6B}"/>
-    <hyperlink ref="K77" r:id="rId132" xr:uid="{D1950805-AAE5-4A33-803E-9858D08F12A2}"/>
-    <hyperlink ref="K74" r:id="rId133" xr:uid="{01D963BB-A0C2-4C40-BA01-8B0B76381716}"/>
-    <hyperlink ref="K78" r:id="rId134" xr:uid="{D9B5F8EE-01B9-4AA5-9918-F987CA2D7884}"/>
-    <hyperlink ref="C98" r:id="rId135" display="https://czh-labs.com/products/terminal-block-breakout-board-module-for-teensy-41-screw-mount-version?gad_source=1&amp;gad_campaignid=17335691898&amp;gbraid=0AAAAADQKSWrLA97xSr9gmMM99UCSLmr58&amp;gclid=CjwKCAjwp_LDBhBCEiwAK7FnklUhjhvxFgmMMu0XiWu80nKxdv4QNWNVcUvZhioyk86weMe15LnzoRoClR4QAvD_BwE " xr:uid="{944A4911-F6CF-4EB3-82C2-8B8DAFBE56E9}"/>
-    <hyperlink ref="C38" r:id="rId136" xr:uid="{737F7509-05EB-4CE3-AA5B-929CB63FC161}"/>
+    <hyperlink ref="K79" r:id="rId126" xr:uid="{A8336809-C542-4E15-9187-DB4F43D26933}"/>
+    <hyperlink ref="K80" r:id="rId127" xr:uid="{49B9B422-CDDA-427C-82B9-729F2266C333}"/>
+    <hyperlink ref="K81" r:id="rId128" xr:uid="{3E0AC7C3-82FC-4B11-AD25-3DE1DD9499EF}"/>
+    <hyperlink ref="C96" r:id="rId129" xr:uid="{2C6B41AF-87E5-4DA5-9686-67EEDF628339}"/>
+    <hyperlink ref="C37" r:id="rId130" xr:uid="{1800FA32-51EA-41AB-8A1C-BCA281C1CA6B}"/>
+    <hyperlink ref="K76" r:id="rId131" xr:uid="{D1950805-AAE5-4A33-803E-9858D08F12A2}"/>
+    <hyperlink ref="K74" r:id="rId132" xr:uid="{01D963BB-A0C2-4C40-BA01-8B0B76381716}"/>
+    <hyperlink ref="K77" r:id="rId133" xr:uid="{D9B5F8EE-01B9-4AA5-9918-F987CA2D7884}"/>
+    <hyperlink ref="C98" r:id="rId134" display="https://czh-labs.com/products/terminal-block-breakout-board-module-for-teensy-41-screw-mount-version?gad_source=1&amp;gad_campaignid=17335691898&amp;gbraid=0AAAAADQKSWrLA97xSr9gmMM99UCSLmr58&amp;gclid=CjwKCAjwp_LDBhBCEiwAK7FnklUhjhvxFgmMMu0XiWu80nKxdv4QNWNVcUvZhioyk86weMe15LnzoRoClR4QAvD_BwE " xr:uid="{944A4911-F6CF-4EB3-82C2-8B8DAFBE56E9}"/>
+    <hyperlink ref="C38" r:id="rId135" xr:uid="{737F7509-05EB-4CE3-AA5B-929CB63FC161}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId137"/>
+  <pageSetup orientation="portrait" r:id="rId136"/>
 </worksheet>
 </file>
 
@@ -5702,15 +5694,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049C730614A98FF4D948BAAFAA2763638" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="09e37f2ef9bef24154c689c9241203a8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a816e368-bd7d-4e73-ae60-f7bbf4d187c7" xmlns:ns3="fb0bfce0-b493-4733-b695-336371de64d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0c23ee64ebe9444b24c4b4ef6420ff96" ns2:_="" ns3:_="">
     <xsd:import namespace="a816e368-bd7d-4e73-ae60-f7bbf4d187c7"/>
@@ -5923,6 +5906,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD534FFF-F9D4-45E9-B4A8-C5178968AA79}">
   <ds:schemaRefs>
@@ -5935,14 +5927,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA33EB9-975B-4CAF-BADE-D8C6854E172C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30F3C9A4-0D35-4985-9741-8479EE24B4B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5959,4 +5943,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EA33EB9-975B-4CAF-BADE-D8C6854E172C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>